--- a/biology/Histoire de la zoologie et de la botanique/Leopold_Fitzinger/Leopold_Fitzinger.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Leopold_Fitzinger/Leopold_Fitzinger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leopold Joseph Franz Johann Fitzinger est un zoologiste autrichien, né le 13 avril 1802 à Vienne et mort le 20 septembre 1884 à Hietzing près de Vienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se passionne pour l'histoire naturelle et particulièrement les plantes dès son jeune âge. Il devient apprenti chez un pharmacien à l'âge de 14 ans. Il commence à fréquenter l'université de Vienne où il suit les cours de botanique de Nikolaus Joseph von Jacquin mais il interrompt ses études dès 1817. Il devient alors assistant dans le muséum d'histoire naturelle de la ville (le Kaiserlich-Königlichen Naturalien-Cabinete), dirigé par le beau-frère de Jacquin, Carl Franz Anton Ritter von Schreibers (1775-1852). Il y travaille durant 27 ans, jusqu'en 1844. Il s'occupe, jusqu'en 1835 des vertébrés inférieurs mais ajoute les mammifères à ses fonctions en 1835.
 En reconnaissance de son travail, il obtient un titre de docteur honoraire dans les universités de Königsberg (1833) et Halle (Saxe-Anhalt) (1834). Il quitte le museum en 1861 et dirige pendant quelques années les zoos de Munich et de Budapest.
